--- a/Questionnaire/XLSform/Quest.xlsx
+++ b/Questionnaire/XLSform/Quest.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arnaud\Documents\GitHub\odriis\Questionnaire\XLSform\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AEEB3E6-C726-4D12-8EC8-7D0CE80EEDDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4490318E-59E4-4451-93EF-664E14B40E80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="624" yWindow="3456" windowWidth="17280" windowHeight="8880" xr2:uid="{EAF2DE69-0781-4B51-BAEF-0FACB636D4A0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{EAF2DE69-0781-4B51-BAEF-0FACB636D4A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1 (2)" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1 (3)" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="60">
   <si>
     <t>name</t>
   </si>
@@ -169,13 +170,70 @@
     <t>note:</t>
   </si>
   <si>
-    <t>1 -&gt; hh mb</t>
-  </si>
-  <si>
     <t xml:space="preserve">Relevant when: </t>
   </si>
   <si>
     <t>Introduction of the questionnaire</t>
+  </si>
+  <si>
+    <t>begin repeat: Household member characteristics</t>
+  </si>
+  <si>
+    <t>begin repeat: Househol member characteristics -&gt; Occupations</t>
+  </si>
+  <si>
+    <t>Family members</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>r.</t>
+  </si>
+  <si>
+    <t>Household members</t>
+  </si>
+  <si>
+    <t>What is the name of the member?</t>
+  </si>
+  <si>
+    <t>familymembers</t>
+  </si>
+  <si>
+    <t>sex</t>
+  </si>
+  <si>
+    <t>What is the sex?</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Occupation of the member</t>
+  </si>
+  <si>
+    <t>Household questionnaire</t>
+  </si>
+  <si>
+    <t>repeat</t>
+  </si>
+  <si>
+    <t>count: family</t>
+  </si>
+  <si>
+    <t>&gt; occupation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">count: </t>
+  </si>
+  <si>
+    <t>relevance: dummy=1</t>
+  </si>
+  <si>
+    <t>relevance: zejhkzjhg</t>
   </si>
 </sst>
 </file>
@@ -237,7 +295,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -274,6 +332,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -287,7 +363,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -320,9 +396,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -330,23 +403,11 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -380,696 +441,92 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="93">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEEB400"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEEB400"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF4685D2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="6" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFDCC97A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFE4E300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE1AAA9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF9E004F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFBA005D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF2DBDA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFBFB00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE3E0CF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDDE8C6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFE7D480"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF6969"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99BCE7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFBB57"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFD44B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEEB400"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEEB400"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF4685D2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="6" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFDCC97A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFE4E300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE1AAA9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF9E004F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFBA005D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF2DBDA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFBFB00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE3E0CF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDDE8C6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFE7D480"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF6969"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99BCE7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFBB57"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFD44B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEEB400"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEEB400"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF4685D2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="6" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFDCC97A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFE4E300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE1AAA9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF9E004F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFBA005D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF2DBDA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFBFB00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE3E0CF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDDE8C6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFE7D480"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF6969"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99BCE7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFBB57"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFD44B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1381,9 +838,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC30CCCE-A0CD-4584-A7E2-50906741B6DF}">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomLeft" activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1435,46 +892,43 @@
       <c r="B2" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="21">
+      <c r="C2" s="16">
         <v>1</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="22"/>
-      <c r="F2" s="31" t="s">
+      <c r="E2" s="17"/>
+      <c r="F2" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="18"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C3" s="20"/>
+      <c r="D3" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="21"/>
+      <c r="F3" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="23"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C3" s="25"/>
-      <c r="D3" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" s="26"/>
-      <c r="F3" s="27" t="s">
+      <c r="G3" s="22"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C4" s="23"/>
+      <c r="D4" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="G3" s="27"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C4" s="28"/>
-      <c r="D4" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="29"/>
-      <c r="F4" s="30" t="str">
-        <f>"--repeat"</f>
-        <v>--repeat</v>
-      </c>
-      <c r="G4" s="30"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
     </row>
     <row r="5" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="D5" s="3" t="s">
@@ -1560,6 +1014,11 @@
       </c>
       <c r="F11" s="4" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D13" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -1629,20 +1088,20 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.109375" style="14" customWidth="1"/>
-    <col min="2" max="2" width="11.109375" style="14" customWidth="1"/>
-    <col min="3" max="3" width="2" style="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5546875" style="15" customWidth="1"/>
-    <col min="5" max="5" width="4.77734375" style="6" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="17.21875" style="16" customWidth="1"/>
-    <col min="7" max="7" width="5.6640625" style="15" customWidth="1"/>
-    <col min="8" max="8" width="33.109375" style="15" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="13"/>
+    <col min="1" max="1" width="5.109375" style="13" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" style="13" customWidth="1"/>
+    <col min="3" max="3" width="2" style="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" style="14" customWidth="1"/>
+    <col min="5" max="5" width="4.77734375" style="30" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="28.33203125" style="14" customWidth="1"/>
+    <col min="7" max="7" width="4.21875" style="14" customWidth="1"/>
+    <col min="8" max="8" width="33.109375" style="14" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -1652,16 +1111,16 @@
       <c r="B1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="27" t="s">
         <v>36</v>
       </c>
       <c r="D1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="11" t="s">
         <v>1</v>
       </c>
       <c r="G1" s="11" t="s">
@@ -1672,176 +1131,612 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="10.199999999999999" x14ac:dyDescent="0.2">
-      <c r="A2" s="14">
+      <c r="A2" s="13">
         <v>1</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="20">
+      <c r="C2" s="29">
         <v>1</v>
       </c>
-      <c r="D2" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="12"/>
+      <c r="D2" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="28"/>
+      <c r="F2" s="11"/>
       <c r="G2" s="11"/>
       <c r="H2" s="11"/>
     </row>
-    <row r="3" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="14">
+    <row r="4" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="13">
         <v>2</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B4" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D4" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E4" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F4" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="14">
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="13">
         <v>3</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B5" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E5" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F5" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-    </row>
-    <row r="5" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="14">
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+    </row>
+    <row r="6" spans="1:8" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="13">
         <v>4</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B6" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D6" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E6" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F6" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G6" s="16">
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G7" s="14">
         <v>1</v>
       </c>
-      <c r="H6" s="16" t="s">
+      <c r="H7" s="14" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G7" s="16">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G8" s="14">
         <v>2</v>
       </c>
-      <c r="H7" s="16" t="s">
+      <c r="H8" s="14" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G8" s="16">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G9" s="14">
         <v>3</v>
       </c>
-      <c r="H8" s="16" t="s">
+      <c r="H9" s="14" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="14">
+    <row r="10" spans="1:8" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A10" s="13">
         <v>5</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B10" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D10" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E10" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="F9" s="15" t="s">
+      <c r="F10" s="14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="14">
+    <row r="11" spans="1:8" ht="51" x14ac:dyDescent="0.3">
+      <c r="A11" s="13">
         <v>6</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B11" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D11" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E11" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="15" t="s">
+      <c r="F11" s="14" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="14">
+    <row r="12" spans="1:8" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A12" s="13">
         <v>7</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B12" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D12" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E12" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="F11" s="15" t="s">
+      <c r="F12" s="14" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="14">
+    <row r="13" spans="1:8" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A13" s="13">
         <v>8</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B13" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D13" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E13" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="15" t="s">
+      <c r="F13" s="14" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="14">
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34461339-60B3-4CFD-9785-3EEC4AF6F94F}">
+  <dimension ref="A1:J23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5.109375" style="35" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" style="35" customWidth="1"/>
+    <col min="3" max="3" width="3.44140625" style="32" customWidth="1"/>
+    <col min="4" max="4" width="3.44140625" style="36" customWidth="1"/>
+    <col min="5" max="5" width="23.77734375" style="37" customWidth="1"/>
+    <col min="6" max="6" width="3.77734375" style="38" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.33203125" style="37" customWidth="1"/>
+    <col min="8" max="8" width="4.21875" style="37" customWidth="1"/>
+    <col min="9" max="9" width="33.109375" style="37" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="33" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="A2" s="35">
+        <v>1</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="40">
+        <v>1</v>
+      </c>
+      <c r="D2" s="40"/>
+      <c r="E2" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" s="42"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="44"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C3" s="51"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="53" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" s="54"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="55"/>
+    </row>
+    <row r="4" spans="1:10" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="35">
+        <v>2</v>
+      </c>
+      <c r="B4" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="27"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="39"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="35">
+        <v>3</v>
+      </c>
+      <c r="B5" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="27"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="14" t="s">
         <v>9</v>
       </c>
+      <c r="F5" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="39"/>
+    </row>
+    <row r="6" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A6" s="35">
+        <v>4</v>
+      </c>
+      <c r="B6" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="27"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="39"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C7" s="27"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14">
+        <v>1</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="J7" s="39"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C8" s="27"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14">
+        <v>2</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="J8" s="39"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C9" s="27"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14">
+        <v>3</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="J9" s="39"/>
+    </row>
+    <row r="10" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A10" s="35">
+        <v>5</v>
+      </c>
+      <c r="B10" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="27"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="39"/>
+    </row>
+    <row r="11" spans="1:10" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="35">
+        <v>6</v>
+      </c>
+      <c r="B11" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="27"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="39"/>
+    </row>
+    <row r="12" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A12" s="35">
+        <v>7</v>
+      </c>
+      <c r="B12" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="27"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="39"/>
+    </row>
+    <row r="13" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A13" s="35">
+        <v>8</v>
+      </c>
+      <c r="B13" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="27"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="39"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B14" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="27"/>
+      <c r="D14" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" s="47"/>
+      <c r="G14" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="39"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B15" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="27"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" s="47"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="39"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C16" s="27"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F16" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="39"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C17" s="27"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="39"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C18" s="27"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14">
+        <v>1</v>
+      </c>
+      <c r="I18" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="J18" s="39"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C19" s="27"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14">
+        <v>2</v>
+      </c>
+      <c r="I19" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="J19" s="39"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B20" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="27"/>
+      <c r="D20" s="48" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="F20" s="50"/>
+      <c r="G20" s="49"/>
+      <c r="H20" s="49"/>
+      <c r="I20" s="49"/>
+      <c r="J20" s="39"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B21" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="27"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="49" t="s">
+        <v>56</v>
+      </c>
+      <c r="F21" s="50"/>
+      <c r="G21" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="H21" s="49"/>
+      <c r="I21" s="49" t="s">
+        <v>57</v>
+      </c>
+      <c r="J21" s="39"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C22" s="27"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="H22" s="49"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="39"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C23" s="27"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F23" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="39"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
